--- a/prototipo/calibracion_markers/python/desfases_markers.xlsx
+++ b/prototipo/calibracion_markers/python/desfases_markers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\Desktop\tesis_ger\prototipo\calibracion_markers\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CAD8C40-1A0D-4153-BA77-5EB81725E4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F87025-2A96-48B7-9289-85E755DA8E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="2310" windowWidth="16125" windowHeight="12615" xr2:uid="{6EE0676F-9A8C-41C6-A4CD-1139689651CA}"/>
+    <workbookView xWindow="14385" yWindow="1785" windowWidth="11595" windowHeight="11295" xr2:uid="{6EE0676F-9A8C-41C6-A4CD-1139689651CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
